--- a/2 - RiverWare Modeling/With Evaporation Modeling/Hydrology/Evaporation.xlsx
+++ b/2 - RiverWare Modeling/With Evaporation Modeling/Hydrology/Evaporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\2 - RiverWare Modeling\With Evaporation Modeling\Hydrology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C7414-9A6F-4893-ADD9-C0851457D456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB180BF-7F9F-4A40-921E-23B04F4434FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trace1" sheetId="2" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3872A-6895-4BF3-B0ED-0446BF2CDE13}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:R14"/>
     </sheetView>
   </sheetViews>
